--- a/src/test/resources/TestData/NopTestData.xlsx
+++ b/src/test/resources/TestData/NopTestData.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS926\Desktop\Register-Login\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E8572D-6E46-4B08-9257-F58280AEF4D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DC383-9FA8-4FC4-BA1F-1F993032EDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="2" xr2:uid="{DE8363D3-B560-43C9-9631-F036CC172FD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="4" xr2:uid="{DE8363D3-B560-43C9-9631-F036CC172FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Nop_Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search_Product" sheetId="2" r:id="rId2"/>
     <sheet name="Checkout_Billing_Address" sheetId="3" r:id="rId3"/>
+    <sheet name="NopVerify" sheetId="4" r:id="rId4"/>
+    <sheet name="Registration_Page" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>EmailID</t>
   </si>
@@ -98,12 +100,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>admin@yourStore.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -114,13 +110,64 @@
   </si>
   <si>
     <t>1212</t>
+  </si>
+  <si>
+    <t>VerifyOrder</t>
+  </si>
+  <si>
+    <t>Your order has been successfully processed!</t>
+  </si>
+  <si>
+    <t>Aa@123456</t>
+  </si>
+  <si>
+    <t>GenderMale</t>
+  </si>
+  <si>
+    <t>GenderFemale</t>
+  </si>
+  <si>
+    <t>DateOfBirthDay</t>
+  </si>
+  <si>
+    <t>DateOfBirthMonth</t>
+  </si>
+  <si>
+    <t>DateOfBirthYear</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>nopStation</t>
+  </si>
+  <si>
+    <t>Your registration completed</t>
+  </si>
+  <si>
+    <t>VerifyRegister</t>
+  </si>
+  <si>
+    <t>noorealam@gmail.com</t>
+  </si>
+  <si>
+    <t>foysalbs@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +201,23 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -194,6 +262,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,7 +584,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -523,27 +594,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{41F7C033-0802-4268-BA38-0834E07917C3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E1C16AB1-72AD-438A-B3D3-09CA04502944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -587,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03090B-6E29-425A-82AE-259393B5F1E5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -608,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -616,31 +688,31 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,10 +730,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -673,10 +745,13 @@
         <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3">
         <v>161345454</v>
+      </c>
+      <c r="L2" s="3">
+        <v>123848488</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -689,4 +764,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DC909E-E34B-4842-AA2B-238808D15D52}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59CF501-DFC2-4158-9198-0226E0743C69}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.5">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>1996</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{8ECF4CD4-9446-4110-AA57-7DB1ADF6F2D1}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{55C96C4F-0900-4896-8979-FC9164AC21CF}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{EF46769F-88D4-4E3F-95AF-D7F2BA629F1A}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{3A3BB2F1-7310-468C-935D-0A69CCCB09B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/NopTestData.xlsx
+++ b/src/test/resources/TestData/NopTestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS926\Desktop\Register-Login\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E8572D-6E46-4B08-9257-F58280AEF4D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA9F8A-AC46-44C3-814E-A4518515CE62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="2" xr2:uid="{DE8363D3-B560-43C9-9631-F036CC172FD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{DE8363D3-B560-43C9-9631-F036CC172FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Nop_Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search_Product" sheetId="2" r:id="rId2"/>
     <sheet name="Checkout_Billing_Address" sheetId="3" r:id="rId3"/>
+    <sheet name="NopVerify" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>EmailID</t>
   </si>
@@ -98,12 +99,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>admin@yourStore.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -114,13 +109,25 @@
   </si>
   <si>
     <t>1212</t>
+  </si>
+  <si>
+    <t>VerifyOrder</t>
+  </si>
+  <si>
+    <t>Your order has been successfully processed!</t>
+  </si>
+  <si>
+    <t>abc123446@gmail.com</t>
+  </si>
+  <si>
+    <t>Aa@123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +161,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +203,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -194,6 +214,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A4C790-6121-408E-A2E8-F07C7F2045A5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -523,27 +545,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{41F7C033-0802-4268-BA38-0834E07917C3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E1C16AB1-72AD-438A-B3D3-09CA04502944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -587,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03090B-6E29-425A-82AE-259393B5F1E5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -608,7 +631,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -616,31 +639,31 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -673,10 +696,13 @@
         <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3">
         <v>161345454</v>
+      </c>
+      <c r="L2" s="3">
+        <v>123848488</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -689,4 +715,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DC909E-E34B-4842-AA2B-238808D15D52}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/NopTestData.xlsx
+++ b/src/test/resources/TestData/NopTestData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS926\Desktop\Register-Login\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C43E32-215D-4767-8591-0BE462C55A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5765E953-75CE-468E-AE20-89C2ABB3FBB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="4" xr2:uid="{DE8363D3-B560-43C9-9631-F036CC172FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Nop_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Search_Product" sheetId="2" r:id="rId2"/>
-    <sheet name="Checkout_Billing_Address" sheetId="3" r:id="rId3"/>
-    <sheet name="NopVerify" sheetId="4" r:id="rId4"/>
-    <sheet name="Registration_Page" sheetId="5" r:id="rId5"/>
+    <sheet name="Registration_Page" sheetId="5" r:id="rId2"/>
+    <sheet name="Search_Product" sheetId="2" r:id="rId3"/>
+    <sheet name="Checkout_Billing_Address" sheetId="3" r:id="rId4"/>
+    <sheet name="NopVerify" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>EmailID</t>
   </si>
@@ -157,17 +157,35 @@
     <t>VerifyRegister</t>
   </si>
   <si>
-    <t>noorealam@gmail.com</t>
-  </si>
-  <si>
     <t>foysalbs@gmail.com</t>
+  </si>
+  <si>
+    <t>foysalrabbi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Log out</t>
+  </si>
+  <si>
+    <t>VerifyLogin</t>
+  </si>
+  <si>
+    <t>NumberOfProduct</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>VerifyShoppingCart</t>
+  </si>
+  <si>
+    <t>(5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,19 +220,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -251,10 +274,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -263,8 +285,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,38 +611,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A4C790-6121-408E-A2E8-F07C7F2045A5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{41F7C033-0802-4268-BA38-0834E07917C3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E1C16AB1-72AD-438A-B3D3-09CA04502944}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{042A8499-35AF-4505-91B3-688C8F21B074}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C940C48B-1DB9-4961-B9D7-EFF66D255313}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -620,33 +657,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEE0AF-C03C-46C3-9F94-AE3C3568E4E8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59CF501-DFC2-4158-9198-0226E0743C69}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.5">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1996</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{8ECF4CD4-9446-4110-AA57-7DB1ADF6F2D1}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{55C96C4F-0900-4896-8979-FC9164AC21CF}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{EF46769F-88D4-4E3F-95AF-D7F2BA629F1A}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{3A3BB2F1-7310-468C-935D-0A69CCCB09B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEE0AF-C03C-46C3-9F94-AE3C3568E4E8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30.453125" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="18.5">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1800</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -655,12 +818,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03090B-6E29-425A-82AE-259393B5F1E5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -688,31 +851,31 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -732,7 +895,7 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
@@ -744,18 +907,18 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>161345454</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>123848488</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -766,156 +929,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DC909E-E34B-4842-AA2B-238808D15D52}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.5">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59CF501-DFC2-4158-9198-0226E0743C69}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.5">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1996</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{8ECF4CD4-9446-4110-AA57-7DB1ADF6F2D1}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{55C96C4F-0900-4896-8979-FC9164AC21CF}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{EF46769F-88D4-4E3F-95AF-D7F2BA629F1A}"/>
-    <hyperlink ref="I2" r:id="rId4" xr:uid="{3A3BB2F1-7310-468C-935D-0A69CCCB09B6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
 </file>